--- a/backgrounds/Ideals.xlsx
+++ b/backgrounds/Ideals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="269">
   <si>
     <t>Acolyte</t>
   </si>
@@ -46,6 +46,105 @@
     <t>City Watch</t>
   </si>
   <si>
+    <t>Clan Crafter</t>
+  </si>
+  <si>
+    <t>Cloistered Scholar</t>
+  </si>
+  <si>
+    <t>Cormanthor Refugee</t>
+  </si>
+  <si>
+    <t>Courtier</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Dragon Casualty</t>
+  </si>
+  <si>
+    <t>Earthspur Miner</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Failed Merchant</t>
+  </si>
+  <si>
+    <t>Faceless</t>
+  </si>
+  <si>
+    <t>Entertainer</t>
+  </si>
+  <si>
+    <t>Far Traveler</t>
+  </si>
+  <si>
+    <t>Folk Hero</t>
+  </si>
+  <si>
+    <t>Gate Urchin</t>
+  </si>
+  <si>
+    <t>Golgari Agent</t>
+  </si>
+  <si>
+    <t>Gruul Anarch</t>
+  </si>
+  <si>
+    <t>Gambler</t>
+  </si>
+  <si>
+    <t>Guild Merchant</t>
+  </si>
+  <si>
+    <t>Guild Artisan</t>
+  </si>
+  <si>
+    <t>Harborfolk</t>
+  </si>
+  <si>
+    <t>Haunted One</t>
+  </si>
+  <si>
+    <t>Hermit</t>
+  </si>
+  <si>
+    <t>Hillsfar Merchant</t>
+  </si>
+  <si>
+    <t>Hillsfar Smuggler</t>
+  </si>
+  <si>
+    <t>House Agent</t>
+  </si>
+  <si>
+    <t>Inheritor</t>
+  </si>
+  <si>
+    <t>Initiate</t>
+  </si>
+  <si>
+    <t>Inquisitor</t>
+  </si>
+  <si>
+    <t>Iron Route Bandit</t>
+  </si>
+  <si>
+    <t>Izzet Engineer</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Smuggler</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
     <t>Lawful=Tradition: The ancient traditions of worship and sacrifice must be preserved and upheld.</t>
   </si>
   <si>
@@ -76,6 +175,81 @@
     <t>Good=Greater Good: Our lot is to lay down our lives in defense of others.</t>
   </si>
   <si>
+    <t>Lawful=Community. It is the duty of all civilized people to strengthen the bonds of community and the security of civilization.</t>
+  </si>
+  <si>
+    <t>Neutral=Knowledge. The path to power and self-improvement is through knowledge.</t>
+  </si>
+  <si>
+    <t>Lawful=Patient: The elves have taught me to think and plan for the long-term.</t>
+  </si>
+  <si>
+    <t>Any=Survivor: No matter the cost, I will take any action necessary to survive.</t>
+  </si>
+  <si>
+    <t>Good=Generosity: The riches of the earth are to be shared by all.</t>
+  </si>
+  <si>
+    <t>Good=Camaraderie: Good people make even the longest voyage bearable.</t>
+  </si>
+  <si>
+    <t>Any=Survival: Where there's life, there's hope. If I remain alive and flexible, I can succeed.</t>
+  </si>
+  <si>
+    <t>Good=Justice: Place in society shouldn't determine one's access to what is right.</t>
+  </si>
+  <si>
+    <t>Good=Beauty: When I perform, I make the world better than it was.</t>
+  </si>
+  <si>
+    <t>Good=Open. I have much to learn from the kindly folk I meet along my way.</t>
+  </si>
+  <si>
+    <t>Good=Respect: People deserve to be treated with dignity and respect.</t>
+  </si>
+  <si>
+    <t>Lawful=Loyal: I never rat out any of my friends, even when the Red Plumes or the Rogues' Guild ask.</t>
+  </si>
+  <si>
+    <t>Any=Clan: My clan is all that really matters.</t>
+  </si>
+  <si>
+    <t>Any=Knowledge: Knowledge is power, and knowing which horse to back is the key to success.</t>
+  </si>
+  <si>
+    <t>Lawful=Calm: For all things, there is a tide. I set sail when it is right, and mend my nets when it is not.</t>
+  </si>
+  <si>
+    <t>Good=Selflessness. I try to help those in need, no matter what the personal cost.</t>
+  </si>
+  <si>
+    <t>Good=Greater Good. My gifts are meant to be shared with all, not used for my own benefit.</t>
+  </si>
+  <si>
+    <t>Lawful=Frugal: I spend my money very carefully.</t>
+  </si>
+  <si>
+    <t>Lawful=Fair: I think everyone deserves to be treated fairly. I don't play favorites.</t>
+  </si>
+  <si>
+    <t>Good=Common Good: My house serves a vital function, and its prosperity will help everyone.</t>
+  </si>
+  <si>
+    <t>Lawful=Solidarity: The thing that matters most of all is that we’re there for each other.</t>
+  </si>
+  <si>
+    <t>Lawful=Honesty: The smallest deception paves the way to grievous sin.</t>
+  </si>
+  <si>
+    <t>Good=Loyalty: Never bite the hand that feeds.</t>
+  </si>
+  <si>
+    <t>Good=Respect: Respect is due to me because of my position, but all people regardless of station deserve to be treated with dignity.</t>
+  </si>
+  <si>
+    <t>Any=Wealth Heaps of coins in a secure vault is all I dream of.</t>
+  </si>
+  <si>
     <t>Good=Charity: I always try to help those in need, no matter what the personal cost.</t>
   </si>
   <si>
@@ -109,6 +283,87 @@
     <t>Lawful=Responsibility: I do what I must and obey just authority.</t>
   </si>
   <si>
+    <t>Good=Generosity. My talents were given to me so that I could use them to benefit the world.</t>
+  </si>
+  <si>
+    <t>Good=Beauty. What is beautiful points us beyond itself toward what is true.</t>
+  </si>
+  <si>
+    <t>Chaotic=Rebellious: Governments and politicians drove my family to the camps. I subtly defy authority whenever I think I can get away with it.</t>
+  </si>
+  <si>
+    <t>Chaotic=Independence: When in trouble, the only person I can rely on is myself.</t>
+  </si>
+  <si>
+    <t>Evil=Greed: Gems and precious metals, I want them all for myself.</t>
+  </si>
+  <si>
+    <t>Lawful=Luck: Our luck depends on respecting its rules—now throw this salt over your shoulder.</t>
+  </si>
+  <si>
+    <t>Good=Generosity: People helped me when I was down. Now that I'm back on my feet, I'll pay it forward.</t>
+  </si>
+  <si>
+    <t>Lawful=Security: Doing what must be done can;t bring the innocent to harm.</t>
+  </si>
+  <si>
+    <t>Lawful=Tradition: The stories, legends, and songs of the past must never be forgotten, for they teach us who we are.</t>
+  </si>
+  <si>
+    <t>Lawful=Reserved. As someone new to these strange lands, I am cautious and respectful in my dealings.</t>
+  </si>
+  <si>
+    <t>Lawful=Fairness: No one should get preferential treatment before the law, and no one is above the law.</t>
+  </si>
+  <si>
+    <t>Chaotic=Adventurous: I don't like doing the same thing every day. I crave variety.</t>
+  </si>
+  <si>
+    <t>Neutral=Stoicism: All of us are part of the cyclical march of nature, which will continue with or without us.</t>
+  </si>
+  <si>
+    <t>Chaotic=Anarchy: No person or law or custom can tell another what to do.</t>
+  </si>
+  <si>
+    <t>Lawful=Fate: Whatever happens is fated, regardless of any planning or striving.</t>
+  </si>
+  <si>
+    <t>Chaotic=Windblown: I go where the winds blow. No man or woman tells me where or when to sail.</t>
+  </si>
+  <si>
+    <t>Any=Determination. I’ll stop the spirits that haunt me or die trying.</t>
+  </si>
+  <si>
+    <t>Lawful=Logic. Emotions must not cloud our sense of what is right and true, or our logical thinking.</t>
+  </si>
+  <si>
+    <t>Chaotic=Profligate: I tend to spend extravagantly.</t>
+  </si>
+  <si>
+    <t>Chaotic=Impulsive: Planning is often a waste of time. No plan survives contact with reality. It's easier to dive in and deal with the consequences.</t>
+  </si>
+  <si>
+    <t>Lawful=Tradition: I uphold traditions of my house and bring honor to my family.</t>
+  </si>
+  <si>
+    <t>Neutral=Knowledge: The world is a puzzle — a mystery waiting to be solved.</t>
+  </si>
+  <si>
+    <t>Good=Piety: Devotion to the angels and the rites of the church is all that keeps the world from destruction.</t>
+  </si>
+  <si>
+    <t>Chaotic=Unpredictability: Keep your enemy guessing and off-balance like a confused deer.</t>
+  </si>
+  <si>
+    <t>Chaotic=Creativity: Half the world's troubles come from stodgy thinking, stuck in the past. We need innovative solutions.</t>
+  </si>
+  <si>
+    <t>Lawful=Responsibility: It is my duty to respect the authority of those above me, just as those below me must respect mine.</t>
+  </si>
+  <si>
+    <t>Lawful=Smuggler's Code I uphold the unwritten rules of the smugglers, who do not cheat one another or directly harm innocents.</t>
+  </si>
+  <si>
     <t>Chaotic=Change: We must help bring about the changes the gods are constantly working in the world.</t>
   </si>
   <si>
@@ -142,6 +397,87 @@
     <t>Chaotic=Independence: When people follow orders blindly, they embrace a kind of tyranny.</t>
   </si>
   <si>
+    <t>Chaotic=Freedom. Everyone should be free to pursue his or her own livelihood.</t>
+  </si>
+  <si>
+    <t>Lawful=Logic. Emotions must not cloud our logical thinking.</t>
+  </si>
+  <si>
+    <t>Any=Self-Absorbed: I've had to look out for number one so long that it has become second nature.</t>
+  </si>
+  <si>
+    <t>Good=Compassionate: I have suffered long at the hands of a Dragon, and take pity and compassion on the suffering of others.</t>
+  </si>
+  <si>
+    <t>Chaotic=Mooch: Property, schmoperty. If I need it, I take and use it. If I don't, I leave it for someone else.</t>
+  </si>
+  <si>
+    <t>Chaotic=Daring: The richest bounty goes to those who risk everything.</t>
+  </si>
+  <si>
+    <t>Chaotic=Excitement: Caution got me nowhere in my previous business. I'm not going to let it hold me back now.</t>
+  </si>
+  <si>
+    <t>Chaotic=Confusion: Deception is a weapon. Strike from where your foes won't expect.</t>
+  </si>
+  <si>
+    <t>Chaotic=Creativity: The world is in need of new ideas and bold action.</t>
+  </si>
+  <si>
+    <t>Chaotic=Adventure. I'm far from home, and everything is strange and wonderful!</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom: Tyrants must not be allowed to oppress the people.</t>
+  </si>
+  <si>
+    <t>Any=Strong: Only the strong survive. I respect those who are strong and powerful.</t>
+  </si>
+  <si>
+    <t>Neutral=Nature: The natural world is more important than the edifices of the city and civilization.</t>
+  </si>
+  <si>
+    <t>Neutral=Nature: We weren't born tame or domesticated, so we shouldn't have to live that way.</t>
+  </si>
+  <si>
+    <t>Chaotic=Bravery: If you want to succeed, you have to take risks.</t>
+  </si>
+  <si>
+    <t>Any=Aspiring: I will gain the favor of a Zor or Zora patron, maybe even one of the Blades!</t>
+  </si>
+  <si>
+    <t>Good=Greater Good. I kill monsters to make the world a safer place, and to exorcise my own demons.</t>
+  </si>
+  <si>
+    <t>Chaotic=Free Thinking. Inquiry and curiosity are the pillars of progress.</t>
+  </si>
+  <si>
+    <t>Any=Honest: I deal with others above board.</t>
+  </si>
+  <si>
+    <t>Any=Curious: I want to learn as much as I can about the people and places I encounter.</t>
+  </si>
+  <si>
+    <t>Chaotic=Innovation: Abandon old traditions and find better ways to do things.</t>
+  </si>
+  <si>
+    <t>Any=Strength: All that matters to me is my own perfection. Let everyone else seek that perfection in their own way.</t>
+  </si>
+  <si>
+    <t>Lawful=Order: The laws of Avacyn are meant to preserve the social order — everything in its proper place.</t>
+  </si>
+  <si>
+    <t>Lawful=Power: I strive to become leader of the pack at all costs.</t>
+  </si>
+  <si>
+    <t>Any=Discovery: Every experiment has the potential to reveal more secrets of the multiverse.</t>
+  </si>
+  <si>
+    <t>Chaotic=Independence: I must prove that I can handle myself without coddling from my family.</t>
+  </si>
+  <si>
+    <t>Evil=All for a Coin I'll do nearly anything if it means I turn a profit.</t>
+  </si>
+  <si>
     <t>Lawful=Power: I hope to one day rise to the top of my faith’s religious hierarchy.</t>
   </si>
   <si>
@@ -175,6 +511,87 @@
     <t>Evil=Might: In life as in war, the stronger force wins.</t>
   </si>
   <si>
+    <t>Evil=Greed. I'm only in it for the money.</t>
+  </si>
+  <si>
+    <t>Chaotic=No Limits. Nothing should fetter the infinite possibility inherent in all existence.</t>
+  </si>
+  <si>
+    <t>Any=Wanderlust: I want to see as much of the world beyond the camps as I can.</t>
+  </si>
+  <si>
+    <t>Chaotic=Secretive: I am withdrawn, and hide my monstrous appearance for fear of drawing unwanted attention.</t>
+  </si>
+  <si>
+    <t>Lawful=Boundaries: Everything and everyone has its prescribed place; I respect that and expect others to do the same.</t>
+  </si>
+  <si>
+    <t>Evil=Plunder: Take all that you can and leave nothing for the scavengers.</t>
+  </si>
+  <si>
+    <t>Evil=Wealth: With enough coin, I can buy comfort, power, knowledge, and even eternal life. Nothing will stand between me and money.</t>
+  </si>
+  <si>
+    <t>Evil=Infamy: My name will be a malediction, a curse that fulfills my will.</t>
+  </si>
+  <si>
+    <t>Evil=Greed: I'm only in it for the money and fame.</t>
+  </si>
+  <si>
+    <t>Evil=Cunning. Though I may not know their ways, neither do they know mine, which can be to my advantage.</t>
+  </si>
+  <si>
+    <t>Evil=Might: If I become strong, I can take what I want—what I deserve.</t>
+  </si>
+  <si>
+    <t>Any=Witty: Brains are better than brawn. I rely on my wits and respect others who do the same.</t>
+  </si>
+  <si>
+    <t>Lawful=Interdependence: We are all part of nature's web.</t>
+  </si>
+  <si>
+    <t>Evil=Might: The strongest are meant to dominate the weak.</t>
+  </si>
+  <si>
+    <t>Any=Survival: You can't win if you're dead. Live to fight another day—when the odds might be more in your favor.</t>
+  </si>
+  <si>
+    <t>Any=Salty: I want people to look to me as an expert on plying Mulmaster Harbor.</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom. I have a dark calling that puts me above the law.</t>
+  </si>
+  <si>
+    <t>Evil=Power. Solitude and contemplation are paths toward mystical or magical power.</t>
+  </si>
+  <si>
+    <t>Any=Sharp: I seek to make the best deal possible.</t>
+  </si>
+  <si>
+    <t>Any=Prepared: I think success depends on preparing as much as possible in advance.</t>
+  </si>
+  <si>
+    <t>Evil=Power: I want to ensure the prosperity of my house and wield its power myself.</t>
+  </si>
+  <si>
+    <t>Evil=Ambition: I’m going to prove that I deserve only the best — of everything.</t>
+  </si>
+  <si>
+    <t>Good=Humanity: Human life is to be cherished and preserved against the horrors of the night.</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom: I bow to no one I don’t respect.</t>
+  </si>
+  <si>
+    <t>Lawful=Science: A rigorous application of logical principles and protocols will lead us toward progress more surely than any belief system.</t>
+  </si>
+  <si>
+    <t>Evil=Power: If I can attain more power, no one will tell me what to do.</t>
+  </si>
+  <si>
+    <t>Good=Peace and Prosperity I smuggle only to achieve a greater goal that benefits my community.</t>
+  </si>
+  <si>
     <t>Lawful=Faith: I trust that my deity will guide my actions. I have faith that if I work hard, things will go well.</t>
   </si>
   <si>
@@ -208,6 +625,87 @@
     <t>Neutral=Live and Let Live: Ideals aren't worth killing over or going to war for.</t>
   </si>
   <si>
+    <t>Neutral=People. I'm committed to the people I care about, not to ideals.</t>
+  </si>
+  <si>
+    <t>Evil=Power. Knowledge is the path to power and domination.</t>
+  </si>
+  <si>
+    <t>Good=Generous: I give everything I can to help those in need, regardless of who they are.</t>
+  </si>
+  <si>
+    <t>Lawful=Justice: I have been wronged, and will not allow the same fate to befall others.</t>
+  </si>
+  <si>
+    <t>Neutral=Let it Be: I don't meddle in the affairs of others if I can avoid it. They're none of my business.</t>
+  </si>
+  <si>
+    <t>Neutral=Balance: Do not fish the same spot twice in a row; suppress your greed, and nature will reward you.</t>
+  </si>
+  <si>
+    <t>Lawful=Stability: The mercantile trade was too chaotic for me. I need a nice stable profession, like adventuring.</t>
+  </si>
+  <si>
+    <t>Any=Incorruptibility: Be a symbol, and leave your flawed being behind.</t>
+  </si>
+  <si>
+    <t>Neutral=People: I like seeing the smiles on people's faces when I perform. That's all that matters.</t>
+  </si>
+  <si>
+    <t>Neutral=Inquisitive. Everything is new, but I have a thirst to learn.</t>
+  </si>
+  <si>
+    <t>Neutral=Sincerity: There’s no good in pretending to be something I’m not.</t>
+  </si>
+  <si>
+    <t>Good=Honest: Others can do what they want, but I won't lie or steal, even to feed my family.</t>
+  </si>
+  <si>
+    <t>Evil=Ambition: The time of Golgari ascendance is at hand, and I intend to have a prominent place in the new world order.</t>
+  </si>
+  <si>
+    <t>Chaotic=Rage: AAAAAARRRRggggh! [To live is to feel and express the rage burning in your belly.]</t>
+  </si>
+  <si>
+    <t>Good=Reliability: When I was in need, I was able to rely on others. Now I want to be the one others rely on.</t>
+  </si>
+  <si>
+    <t>Good=Selfless: We are all children of the sea. I help everyone in peril afloat and ashore.</t>
+  </si>
+  <si>
+    <t>Lawful=Logic. I like to know my enemy’s capabilities and weaknesses before rushing into battle.</t>
+  </si>
+  <si>
+    <t>Neutral=Live and Let Live. Meddling in the affairs of others only causes trouble.</t>
+  </si>
+  <si>
+    <t>Good=Charitable: I give generously to others.</t>
+  </si>
+  <si>
+    <t>Good=Respectful: I think everyone deserves to be treated with respect and dignity, regardless of their race, creed, color, or origin.</t>
+  </si>
+  <si>
+    <t>Any=Discovery: I want to learn all I can, both for my house and for my own curiosity.</t>
+  </si>
+  <si>
+    <t>Any=Zeal: Anything worth doing is worth throwing my whole self into.</t>
+  </si>
+  <si>
+    <t>Any=Knowledge: The path to holiness comes through understanding of the world.</t>
+  </si>
+  <si>
+    <t>Any=Resourcefulness: Our wits are our most valuable resource in troubled times.</t>
+  </si>
+  <si>
+    <t>Chaotic=Fun: I love my job! Despite the dangerous working conditions, there's nothing I'd rather do.</t>
+  </si>
+  <si>
+    <t>Any=Family: Blood runs thicker than water.</t>
+  </si>
+  <si>
+    <t>Any=People For all my many lies, I place a high value on friendship.</t>
+  </si>
+  <si>
     <t>Any=Aspiration: I seek to prove myself worthy of my god’s favor by matching my actions against his or her teachings.</t>
   </si>
   <si>
@@ -239,6 +737,87 @@
   </si>
   <si>
     <t>Any=Nation: My city, nation, or people are all that matter.</t>
+  </si>
+  <si>
+    <t>Any=Aspiration. I work hard to be the best there is at my craft.</t>
+  </si>
+  <si>
+    <t>Any=Self-Improvement. The goal of a life of study is the betterment of oneself.</t>
+  </si>
+  <si>
+    <t>Evil=To the Abyss with Them: The people of Hillsfar cast me out. I won't risk my hide to help them.</t>
+  </si>
+  <si>
+    <t>Evil=Sycophant: During my ordeal, I became a willing servant of the Maimed Virulence, and spy on his behalf.</t>
+  </si>
+  <si>
+    <t>Any=Materialist: I want riches to improve my life.</t>
+  </si>
+  <si>
+    <t>Any=Hard Work: No wave can move a soul hard at work.</t>
+  </si>
+  <si>
+    <t>Any=Redemption: Too many people consider me a failure. So I need to prove them wrong.</t>
+  </si>
+  <si>
+    <t>Any=Anonymity: It's my deeds that should be remembered, not their instrument.</t>
+  </si>
+  <si>
+    <t>Any=Honesty: Art should reflect the soul; it should come from within and reveal who we really are.</t>
+  </si>
+  <si>
+    <t>Any=Suspicious. I must be careful, for I have no way of telling friend from foe here.</t>
+  </si>
+  <si>
+    <t>Any=Destiny: Nothing and no one can steer me away from my higher calling.</t>
+  </si>
+  <si>
+    <t>Evil=Ungrateful: Those who give only do it to make themselves feel better. I steal from them.</t>
+  </si>
+  <si>
+    <t>Neutral=Live and Let Live: Meddling in the affairs of other guilds is a great way to get squashed like a bug.</t>
+  </si>
+  <si>
+    <t>Any=Tradition: The Old Ways must be preserved and upheld.</t>
+  </si>
+  <si>
+    <t>Evil=Victory: Winning is the real measure of a person. In the end, the only thing that matters is the scoreboard.</t>
+  </si>
+  <si>
+    <t>Evil=Let them Drown: I refuse to risk my hide to help others. They wouldn't help me if roles were reversed.</t>
+  </si>
+  <si>
+    <t>Evil=Destruction. I’m a monster that destroys other monsters, and anything else that gets in my way.</t>
+  </si>
+  <si>
+    <t>Any=Self-Knowledge. If you know yourself, there's nothing left to know.</t>
+  </si>
+  <si>
+    <t>Evil=Greedy: I do not share my wealth with others.</t>
+  </si>
+  <si>
+    <t>Evil=Corrupt: I will break the law or act dishonestly if the money is right.</t>
+  </si>
+  <si>
+    <t>Any=Comfort: I want to ensure that me and mine enjoy the best things in life.</t>
+  </si>
+  <si>
+    <t>Any=Redemption: I will train all the harder to make up for the doubt I entertained when I was younger.</t>
+  </si>
+  <si>
+    <t>Evil=Punishment: It is better for the innocent to suffer than for the guilty to escape their due.</t>
+  </si>
+  <si>
+    <t>Any=Unity: Lone wolves fail where the pack succeeds.</t>
+  </si>
+  <si>
+    <t>Evil=Power: Someday I'll find or create the magic that will make me the most powerful being in Ravnica.</t>
+  </si>
+  <si>
+    <t>Good=Noble Obligation: It is my duty to protect and care for the people beneath me.</t>
+  </si>
+  <si>
+    <t>Any=Daring I am most happy when risking everything.</t>
   </si>
 </sst>
 </file>
@@ -529,215 +1108,908 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>53</v>
+        <v>165</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>203</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>241</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/Ideals.xlsx
+++ b/backgrounds/Ideals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="337">
   <si>
     <t>Acolyte</t>
   </si>
@@ -139,6 +139,39 @@
     <t>Knight</t>
   </si>
   <si>
+    <t>Mercenary Veteran</t>
+  </si>
+  <si>
+    <t>Mulmaster Aristocrat</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Orzhov Representative</t>
+  </si>
+  <si>
+    <t>Outlander</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>Phlan Insurgent</t>
+  </si>
+  <si>
+    <t>Phlan Refugee</t>
+  </si>
+  <si>
+    <t>Plaintiff</t>
+  </si>
+  <si>
+    <t>Rakdos Cultist</t>
+  </si>
+  <si>
+    <t>Rival Intern</t>
+  </si>
+  <si>
     <t>Smuggler</t>
   </si>
   <si>
@@ -247,6 +280,30 @@
     <t>Good=Respect: Respect is due to me because of my position, but all people regardless of station deserve to be treated with dignity.</t>
   </si>
   <si>
+    <t>Good=Generous: I have a responsibility to help and protect the less fortunate.</t>
+  </si>
+  <si>
+    <t>Good=Respect. Respect is due to me because of my position, but all people regardless of station deserve to be treated with dignity.</t>
+  </si>
+  <si>
+    <t>Chaotic=Change: Life is like the seasons, in constant change, and we must change with it.</t>
+  </si>
+  <si>
+    <t>Good=Respect: The thing that keeps a ship together is mutual respect between captain and crew.</t>
+  </si>
+  <si>
+    <t>Good=Leadership: The oppressed need someone to inspire them to courageous acts.</t>
+  </si>
+  <si>
+    <t>Lawful=Justice: Corruption brought Phlan down. I will not tolerate that any longer.</t>
+  </si>
+  <si>
+    <t>Lawful=Justice: Those who break the law need to answer for their crimes.</t>
+  </si>
+  <si>
+    <t>Evil=Advancement. Money and power can be gained more easily within an organization. I plan to gain as much as possible.</t>
+  </si>
+  <si>
     <t>Any=Wealth Heaps of coins in a secure vault is all I dream of.</t>
   </si>
   <si>
@@ -361,6 +418,36 @@
     <t>Lawful=Responsibility: It is my duty to respect the authority of those above me, just as those below me must respect mine.</t>
   </si>
   <si>
+    <t>Lawful=Loyal: My word, once given, is my bond.</t>
+  </si>
+  <si>
+    <t>Lawful=Responsibility. It is my duty to respect the authority of those above me, just as those below me must respect mine.</t>
+  </si>
+  <si>
+    <t>Evil=Wealth: I will do whatever it takes to become as rich as the oligarchs.</t>
+  </si>
+  <si>
+    <t>Good=Greater Good: It is each person's responsibility to make the most happiness for the whole tribe.</t>
+  </si>
+  <si>
+    <t>Lawful=Fairness: We all do the work, so we all share in the rewards.</t>
+  </si>
+  <si>
+    <t>Chaotic=Unpredictability: Keeping the enemy guessing and off-balance is my tactical strength.</t>
+  </si>
+  <si>
+    <t>Chaotic=Acceptance: Stability is a myth. To think you can control your future is futile.</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom: People must have the freedom to do what they want and pursue their dreams.</t>
+  </si>
+  <si>
+    <t>Neutral=Hedonism: Death comes for everyone, so take as much pleasure as you can from every moment of life.</t>
+  </si>
+  <si>
+    <t>Lawful=Structure. Life goes much more smoothly when you follow the rules and work within a system</t>
+  </si>
+  <si>
     <t>Lawful=Smuggler's Code I uphold the unwritten rules of the smugglers, who do not cheat one another or directly harm innocents.</t>
   </si>
   <si>
@@ -475,6 +562,36 @@
     <t>Chaotic=Independence: I must prove that I can handle myself without coddling from my family.</t>
   </si>
   <si>
+    <t>Evil=Callous: I am unconcerned with any negative effects my actions may have on the lives and fortunes of others.</t>
+  </si>
+  <si>
+    <t>Chaotic=Independence. I must prove that I can handle myself without the coddling of my family.</t>
+  </si>
+  <si>
+    <t>Evil=Power: One day, I will be the one giving orders.</t>
+  </si>
+  <si>
+    <t>Lawful=Honor: If I dishonor myself, I dishonor my whole clan.</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom: The sea is freedom-the freedom to go anywhere and do anything.</t>
+  </si>
+  <si>
+    <t>Any=Determination: Threats to my home must be eliminated at all costs.</t>
+  </si>
+  <si>
+    <t>Good=Hope: I am guided by a higher power and I trust that everything will be right in the end.</t>
+  </si>
+  <si>
+    <t>Evil=Greed: Everyone I see is getting theirs, so I'm surely going to get mine.</t>
+  </si>
+  <si>
+    <t>Chaotic=Creativity: I strive to find more ways to express my art through pain-my own as well as others'.</t>
+  </si>
+  <si>
+    <t>Chaotic=Uncertainty. The more chaos that swirls around me, the more opportunities I can find to profit.</t>
+  </si>
+  <si>
     <t>Evil=All for a Coin I'll do nearly anything if it means I turn a profit.</t>
   </si>
   <si>
@@ -589,6 +706,36 @@
     <t>Evil=Power: If I can attain more power, no one will tell me what to do.</t>
   </si>
   <si>
+    <t>Chaotic=Impulsive: I follow my heart.</t>
+  </si>
+  <si>
+    <t>Evil=Power. If I can attain more power, no one will tell me what to do.</t>
+  </si>
+  <si>
+    <t>Evil=Prestige: I want to be admired, respected, feared, or even hated for my position and wealth.</t>
+  </si>
+  <si>
+    <t>Evil=Might: The strongest are meant to rule.</t>
+  </si>
+  <si>
+    <t>Evil=Mastery: I'm a predator, and the other ships on the sea are my prey.</t>
+  </si>
+  <si>
+    <t>Good=Freedom: Those who are enslaved and unjustly imprisoned deserve my aid.</t>
+  </si>
+  <si>
+    <t>Any=Restraint: I hate those who caused my loss. It is all I can do not to lash out at them.</t>
+  </si>
+  <si>
+    <t>Chaotic=Chaos: You're out of order! And you're out of order! This whole realm is out of order!</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom: No one tells me what to do.</t>
+  </si>
+  <si>
+    <t>Lawful=Justice. I can’t stand people being treated unjustly. I do whatever it takes to stop injustice and those who flout the law.</t>
+  </si>
+  <si>
     <t>Good=Peace and Prosperity I smuggle only to achieve a greater goal that benefits my community.</t>
   </si>
   <si>
@@ -703,6 +850,33 @@
     <t>Any=Family: Blood runs thicker than water.</t>
   </si>
   <si>
+    <t>Neutral=Ignorant: Explanations bore me.</t>
+  </si>
+  <si>
+    <t>Any=Family. Blood runs thicker than water.</t>
+  </si>
+  <si>
+    <t>Lawful=Stability: The economy functions best when chaos is kept under control and everyone knows their place.</t>
+  </si>
+  <si>
+    <t>Neutral=Nature: The natural world is more important than all the constructs of civilization.</t>
+  </si>
+  <si>
+    <t>Neutral=People: I'm committed to my crewmates, not to ideals.</t>
+  </si>
+  <si>
+    <t>Evil=Strength: As shown in Phlan, the strong survive. If you are weak you deserve what you get.</t>
+  </si>
+  <si>
+    <t>Neutral=Humility: I'm just a small part of a larger whole. So is everyone else.</t>
+  </si>
+  <si>
+    <t>Chaotic=Equality: I want to see Ravnica remade, with no guilds and no hierarchies.</t>
+  </si>
+  <si>
+    <t>Any=Pleasure. What’s the use of working hard and making money if you can’t enjoy the finer things in life?</t>
+  </si>
+  <si>
     <t>Any=People For all my many lies, I place a high value on friendship.</t>
   </si>
   <si>
@@ -815,6 +989,36 @@
   </si>
   <si>
     <t>Good=Noble Obligation: It is my duty to protect and care for the people beneath me.</t>
+  </si>
+  <si>
+    <t>Any=Isolationist: I am concerned with the fortunes of my friends and family. Others must see to themselves.</t>
+  </si>
+  <si>
+    <t>Good=Noble Obligation. It is my duty to protect and care for the people beneath me.</t>
+  </si>
+  <si>
+    <t>Any=Eternity: I want to live forever - in the flesh as long as possible, and as a spirit afterward.</t>
+  </si>
+  <si>
+    <t>Any=Glory: I must earn glory in battle, for myself and my clan.</t>
+  </si>
+  <si>
+    <t>Any=Aspiration: Someday I'll own my own ship and chart my own destiny.</t>
+  </si>
+  <si>
+    <t>Any=Unity: Working together, we can overcome all obstacles, even the most seemingly insurmountable ones.</t>
+  </si>
+  <si>
+    <t>Any=Openness: I am always willing to share my life story with anyone who will listen.</t>
+  </si>
+  <si>
+    <t>Any=Responsibility: We all have our roles to play. I'll hold up my end of the bargain.</t>
+  </si>
+  <si>
+    <t>Any=Spectacle: People are inspired by the greatness they see in art.</t>
+  </si>
+  <si>
+    <t>Evil=Power. Money is fine, but real power means never having to say you’re sorry.</t>
   </si>
   <si>
     <t>Any=Daring I am most happy when risking everything.</t>
@@ -1207,809 +1411,1040 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="AR3" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>165</v>
+        <v>231</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>203</v>
+        <v>279</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>241</v>
+        <v>326</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/Ideals.xlsx
+++ b/backgrounds/Ideals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="392">
   <si>
     <t>Acolyte</t>
   </si>
@@ -172,12 +172,39 @@
     <t>Rival Intern</t>
   </si>
   <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Sailor</t>
+  </si>
+  <si>
+    <t>Secret Identity</t>
+  </si>
+  <si>
+    <t>Selesnya Initiate</t>
+  </si>
+  <si>
+    <t>Shade Fanatic</t>
+  </si>
+  <si>
+    <t>Shipwright</t>
+  </si>
+  <si>
+    <t>Simic Scientist</t>
+  </si>
+  <si>
     <t>Smuggler</t>
   </si>
   <si>
+    <t>Soldier</t>
+  </si>
+  <si>
     <t>Spy</t>
   </si>
   <si>
+    <t>Stojanow Prisoner</t>
+  </si>
+  <si>
     <t>Lawful=Tradition: The ancient traditions of worship and sacrifice must be preserved and upheld.</t>
   </si>
   <si>
@@ -304,9 +331,27 @@
     <t>Evil=Advancement. Money and power can be gained more easily within an organization. I plan to gain as much as possible.</t>
   </si>
   <si>
+    <t>Neutral=Knowledge: The path to power and self-improvement is through knowledge.</t>
+  </si>
+  <si>
+    <t>Good=Respect. The thing that keeps a ship together is mutual respect between captain and crew.</t>
+  </si>
+  <si>
+    <t>Lawful=Quisling: Supporting the rulers of the land and following the laws is the road to salvation.</t>
+  </si>
+  <si>
+    <t>Chaotic=Hope: I know even if I need do evil acts, history will be my redemption.</t>
+  </si>
+  <si>
+    <t>Good=Crew: If everyone on deck pitches in, we’ll never sink.</t>
+  </si>
+  <si>
     <t>Any=Wealth Heaps of coins in a secure vault is all I dream of.</t>
   </si>
   <si>
+    <t>Chaotic=Loss: I freely give those who offend me what was so brutally denied me, death.</t>
+  </si>
+  <si>
     <t>Good=Charity: I always try to help those in need, no matter what the personal cost.</t>
   </si>
   <si>
@@ -448,9 +493,33 @@
     <t>Lawful=Structure. Life goes much more smoothly when you follow the rules and work within a system</t>
   </si>
   <si>
+    <t>Good=Beauty: What is beautiful points us beyond itself toward what is true.</t>
+  </si>
+  <si>
+    <t>Lawful=Fairness. We all do the work, so we all share in the rewards.</t>
+  </si>
+  <si>
+    <t>Chaotic=Scofflaw: The laws and lawmakers are corrupt. I follow laws only when it suits me.</t>
+  </si>
+  <si>
+    <t>Good=Harmony: Nothing is more beautiful than voices and actions aligned in common purpose.</t>
+  </si>
+  <si>
+    <t>Lawful=Dedicated: I can do anything I put my mind to.</t>
+  </si>
+  <si>
+    <t>Lawful=Careful Lines: A ship must be balanced according to the laws of the universe.</t>
+  </si>
+  <si>
+    <t>Chaotic=Change: All life is meant to progress toward perfection, and our work is to hurry it along - no matter what must be upended along the way.</t>
+  </si>
+  <si>
     <t>Lawful=Smuggler's Code I uphold the unwritten rules of the smugglers, who do not cheat one another or directly harm innocents.</t>
   </si>
   <si>
+    <t>Lawful=Dedication: I never betray those who trust me.</t>
+  </si>
+  <si>
     <t>Chaotic=Change: We must help bring about the changes the gods are constantly working in the world.</t>
   </si>
   <si>
@@ -592,9 +661,33 @@
     <t>Chaotic=Uncertainty. The more chaos that swirls around me, the more opportunities I can find to profit.</t>
   </si>
   <si>
+    <t>Lawful=Logic: Emotions must not cloud our logical thinking.</t>
+  </si>
+  <si>
+    <t>Chaotic=Freedom. The sea is freedom-the freedom to go anywhere and do anything.</t>
+  </si>
+  <si>
+    <t>Any=Optimist: Everyone is basically good. Though the government is misguided, it will all be okay.</t>
+  </si>
+  <si>
+    <t>Lawful=Order: Like a well-pruned tree, society thrives when everything is kept in good order.</t>
+  </si>
+  <si>
+    <t>Any=Exciting: I have found the truth of the Shadovar and want to share it with everyone.</t>
+  </si>
+  <si>
+    <t>Chaotic=Invention: Make what you need out of whatever is at hand.</t>
+  </si>
+  <si>
+    <t>Neutral=Knowledge: Understanding the world is more important than what you do with your knowledge.</t>
+  </si>
+  <si>
     <t>Evil=All for a Coin I'll do nearly anything if it means I turn a profit.</t>
   </si>
   <si>
+    <t>Evil=Vengeance: I use any means to get information I need; I have been well taught.</t>
+  </si>
+  <si>
     <t>Lawful=Power: I hope to one day rise to the top of my faith’s religious hierarchy.</t>
   </si>
   <si>
@@ -736,9 +829,33 @@
     <t>Lawful=Justice. I can’t stand people being treated unjustly. I do whatever it takes to stop injustice and those who flout the law.</t>
   </si>
   <si>
+    <t>Chaotic=No Limits: Nothing should fetter the infinite possibility inherent in all existence.</t>
+  </si>
+  <si>
+    <t>Evil=Mastery. I'm a predator, and the other ships on the sea are my prey.</t>
+  </si>
+  <si>
+    <t>Any=Secretive: I am in the habit of not talking about myself. My business is none of yours.</t>
+  </si>
+  <si>
+    <t>Good=Life: Preserving life and nature is always a worthwhile endeavor.</t>
+  </si>
+  <si>
+    <t>Any=Frugal: I horde my possessions knowing that someday I will be called upon to give everything I have to the cause.</t>
+  </si>
+  <si>
+    <t>Evil=Perfection: To measure a being and find it lacking is the greatest disappointment.</t>
+  </si>
+  <si>
+    <t>Good=Greater Good: I want to reshape the world into higher forms of life so that all can enjoy evolution.</t>
+  </si>
+  <si>
     <t>Good=Peace and Prosperity I smuggle only to achieve a greater goal that benefits my community.</t>
   </si>
   <si>
+    <t>Good=Redemption: Everyone deserves a second chance.</t>
+  </si>
+  <si>
     <t>Lawful=Faith: I trust that my deity will guide my actions. I have faith that if I work hard, things will go well.</t>
   </si>
   <si>
@@ -877,9 +994,33 @@
     <t>Any=Pleasure. What’s the use of working hard and making money if you can’t enjoy the finer things in life?</t>
   </si>
   <si>
+    <t>Evil=Power: Knowledge is the path to power and domination.</t>
+  </si>
+  <si>
+    <t>Neutral=People. I'm committed to my crewmates, not to ideals.</t>
+  </si>
+  <si>
+    <t>Good=Heroic: I do everything I can to help non-humans, regardless of the personal cost to me.</t>
+  </si>
+  <si>
+    <t>Good=Humility: Ambition and pride are the roots of strife.</t>
+  </si>
+  <si>
+    <t>Any=Eloquent: I use my words to sway others to my beliefs.</t>
+  </si>
+  <si>
+    <t>Any=Reflection: Muddled water always clears in time.</t>
+  </si>
+  <si>
+    <t>Lawful=Logic: It's foolish to let emotions and principles interfere with the conclusions of logic.</t>
+  </si>
+  <si>
     <t>Any=People For all my many lies, I place a high value on friendship.</t>
   </si>
   <si>
+    <t>Any=Resilience: I can survive any challenge.</t>
+  </si>
+  <si>
     <t>Any=Aspiration: I seek to prove myself worthy of my god’s favor by matching my actions against his or her teachings.</t>
   </si>
   <si>
@@ -1021,7 +1162,31 @@
     <t>Evil=Power. Money is fine, but real power means never having to say you’re sorry.</t>
   </si>
   <si>
+    <t>Any=Self-Improvement: The goal of a life of study is the betterment of oneself.</t>
+  </si>
+  <si>
+    <t>Any=Aspiration. Someday I'll own my own ship and chart my own destiny.</t>
+  </si>
+  <si>
+    <t>Evil=Depraved: I have lost my moral compass. The ends justify most any means.</t>
+  </si>
+  <si>
+    <t>Any=Evangelism: When all have joined the Selesnya Conclave, Ravnica will finally know peace.</t>
+  </si>
+  <si>
+    <t>Good=Compassionate: It is through love that others will join In our cause.</t>
+  </si>
+  <si>
+    <t>Good=Hope: The horizon at sea holds the greatest promise.</t>
+  </si>
+  <si>
+    <t>Evil=Superiority: My vast intellect and strength are directed toward increasing my sway over others.</t>
+  </si>
+  <si>
     <t>Any=Daring I am most happy when risking everything.</t>
+  </si>
+  <si>
+    <t>Any=Leadership: The best teams are made up of those that society has discarded.</t>
   </si>
 </sst>
 </file>
@@ -1444,1007 +1609,1196 @@
       <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AR2" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="AR3" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>108</v>
+        <v>161</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="AR4" s="1" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>156</v>
+        <v>217</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AV5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AW5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>204</v>
+      <c r="BK5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>252</v>
+        <v>328</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>299</v>
+        <v>384</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/Ideals.xlsx
+++ b/backgrounds/Ideals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="322">
   <si>
     <t>Acolyte</t>
   </si>
@@ -25,15 +25,9 @@
     <t>Athlete</t>
   </si>
   <si>
-    <t>Azorius Functionary</t>
-  </si>
-  <si>
     <t>Black Fist Double Agent</t>
   </si>
   <si>
-    <t>Boros Legionnaire</t>
-  </si>
-  <si>
     <t>Caravan Specialist</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Criminal</t>
   </si>
   <si>
-    <t>Dragon Casualty</t>
-  </si>
-  <si>
     <t>Earthspur Miner</t>
   </si>
   <si>
@@ -88,12 +79,6 @@
     <t>Gate Urchin</t>
   </si>
   <si>
-    <t>Golgari Agent</t>
-  </si>
-  <si>
-    <t>Gruul Anarch</t>
-  </si>
-  <si>
     <t>Gambler</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>Hillsfar Smuggler</t>
   </si>
   <si>
-    <t>House Agent</t>
-  </si>
-  <si>
     <t>Inheritor</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Iron Route Bandit</t>
   </si>
   <si>
-    <t>Izzet Engineer</t>
-  </si>
-  <si>
     <t>Knight</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>Noble</t>
   </si>
   <si>
-    <t>Orzhov Representative</t>
-  </si>
-  <si>
     <t>Outlander</t>
   </si>
   <si>
@@ -166,9 +142,6 @@
     <t>Plaintiff</t>
   </si>
   <si>
-    <t>Rakdos Cultist</t>
-  </si>
-  <si>
     <t>Rival Intern</t>
   </si>
   <si>
@@ -181,18 +154,12 @@
     <t>Secret Identity</t>
   </si>
   <si>
-    <t>Selesnya Initiate</t>
-  </si>
-  <si>
     <t>Shade Fanatic</t>
   </si>
   <si>
     <t>Shipwright</t>
   </si>
   <si>
-    <t>Simic Scientist</t>
-  </si>
-  <si>
     <t>Smuggler</t>
   </si>
   <si>
@@ -217,9 +184,6 @@
     <t>Chaotic=Competition: I strive to test myself in all things.</t>
   </si>
   <si>
-    <t>Any=Guild: My guild is all that really matters.</t>
-  </si>
-  <si>
     <t>Any=Suspicious: In my experience, everybody has something to hide, and what they hide can usually hurt me</t>
   </si>
   <si>
@@ -244,9 +208,6 @@
     <t>Lawful=Patient: The elves have taught me to think and plan for the long-term.</t>
   </si>
   <si>
-    <t>Any=Survivor: No matter the cost, I will take any action necessary to survive.</t>
-  </si>
-  <si>
     <t>Good=Generosity: The riches of the earth are to be shared by all.</t>
   </si>
   <si>
@@ -271,9 +232,6 @@
     <t>Lawful=Loyal: I never rat out any of my friends, even when the Red Plumes or the Rogues' Guild ask.</t>
   </si>
   <si>
-    <t>Any=Clan: My clan is all that really matters.</t>
-  </si>
-  <si>
     <t>Any=Knowledge: Knowledge is power, and knowing which horse to back is the key to success.</t>
   </si>
   <si>
@@ -292,9 +250,6 @@
     <t>Lawful=Fair: I think everyone deserves to be treated fairly. I don't play favorites.</t>
   </si>
   <si>
-    <t>Good=Common Good: My house serves a vital function, and its prosperity will help everyone.</t>
-  </si>
-  <si>
     <t>Lawful=Solidarity: The thing that matters most of all is that we’re there for each other.</t>
   </si>
   <si>
@@ -364,15 +319,9 @@
     <t>Evil=Triumph: The best part of winning is seeing my rivals brought low.</t>
   </si>
   <si>
-    <t>Lawful=Order: The law is meant to ensure that the gears of society turn smoothly and quietly.</t>
-  </si>
-  <si>
     <t>Any=Secretive: I trade in secrets, and am not about to let any of mine slip</t>
   </si>
   <si>
-    <t>Good=Justice: Achieving justice requires establishing fair, equitable, and compassionate relationships within a community.</t>
-  </si>
-  <si>
     <t>Evil=Selfish: What people don't know WILL hurt them, but why is that my problem?</t>
   </si>
   <si>
@@ -394,9 +343,6 @@
     <t>Chaotic=Rebellious: Governments and politicians drove my family to the camps. I subtly defy authority whenever I think I can get away with it.</t>
   </si>
   <si>
-    <t>Chaotic=Independence: When in trouble, the only person I can rely on is myself.</t>
-  </si>
-  <si>
     <t>Evil=Greed: Gems and precious metals, I want them all for myself.</t>
   </si>
   <si>
@@ -421,12 +367,6 @@
     <t>Chaotic=Adventurous: I don't like doing the same thing every day. I crave variety.</t>
   </si>
   <si>
-    <t>Neutral=Stoicism: All of us are part of the cyclical march of nature, which will continue with or without us.</t>
-  </si>
-  <si>
-    <t>Chaotic=Anarchy: No person or law or custom can tell another what to do.</t>
-  </si>
-  <si>
     <t>Lawful=Fate: Whatever happens is fated, regardless of any planning or striving.</t>
   </si>
   <si>
@@ -445,9 +385,6 @@
     <t>Chaotic=Impulsive: Planning is often a waste of time. No plan survives contact with reality. It's easier to dive in and deal with the consequences.</t>
   </si>
   <si>
-    <t>Lawful=Tradition: I uphold traditions of my house and bring honor to my family.</t>
-  </si>
-  <si>
     <t>Neutral=Knowledge: The world is a puzzle — a mystery waiting to be solved.</t>
   </si>
   <si>
@@ -457,9 +394,6 @@
     <t>Chaotic=Unpredictability: Keep your enemy guessing and off-balance like a confused deer.</t>
   </si>
   <si>
-    <t>Chaotic=Creativity: Half the world's troubles come from stodgy thinking, stuck in the past. We need innovative solutions.</t>
-  </si>
-  <si>
     <t>Lawful=Responsibility: It is my duty to respect the authority of those above me, just as those below me must respect mine.</t>
   </si>
   <si>
@@ -469,9 +403,6 @@
     <t>Lawful=Responsibility. It is my duty to respect the authority of those above me, just as those below me must respect mine.</t>
   </si>
   <si>
-    <t>Evil=Wealth: I will do whatever it takes to become as rich as the oligarchs.</t>
-  </si>
-  <si>
     <t>Good=Greater Good: It is each person's responsibility to make the most happiness for the whole tribe.</t>
   </si>
   <si>
@@ -487,9 +418,6 @@
     <t>Chaotic=Freedom: People must have the freedom to do what they want and pursue their dreams.</t>
   </si>
   <si>
-    <t>Neutral=Hedonism: Death comes for everyone, so take as much pleasure as you can from every moment of life.</t>
-  </si>
-  <si>
     <t>Lawful=Structure. Life goes much more smoothly when you follow the rules and work within a system</t>
   </si>
   <si>
@@ -502,18 +430,12 @@
     <t>Chaotic=Scofflaw: The laws and lawmakers are corrupt. I follow laws only when it suits me.</t>
   </si>
   <si>
-    <t>Good=Harmony: Nothing is more beautiful than voices and actions aligned in common purpose.</t>
-  </si>
-  <si>
     <t>Lawful=Dedicated: I can do anything I put my mind to.</t>
   </si>
   <si>
     <t>Lawful=Careful Lines: A ship must be balanced according to the laws of the universe.</t>
   </si>
   <si>
-    <t>Chaotic=Change: All life is meant to progress toward perfection, and our work is to hurry it along - no matter what must be upended along the way.</t>
-  </si>
-  <si>
     <t>Lawful=Smuggler's Code I uphold the unwritten rules of the smugglers, who do not cheat one another or directly harm innocents.</t>
   </si>
   <si>
@@ -532,15 +454,9 @@
     <t>Good=Camaraderie: The strongest bonds are forged through struggle.</t>
   </si>
   <si>
-    <t>Good=Peace: The ultimate object of the law is to remove violence from society.</t>
-  </si>
-  <si>
     <t>Chaotic=Hedonist: Life is short. I live my life to the fullest, as I know any day could be my last</t>
   </si>
   <si>
-    <t>Good=Protection: It isn't right for innocents to suffer because of the arrogance of the powerful.</t>
-  </si>
-  <si>
     <t>Chaotic=Wanderer: I go where the road takes me. Sometimes that's a good thing...</t>
   </si>
   <si>
@@ -562,9 +478,6 @@
     <t>Any=Self-Absorbed: I've had to look out for number one so long that it has become second nature.</t>
   </si>
   <si>
-    <t>Good=Compassionate: I have suffered long at the hands of a Dragon, and take pity and compassion on the suffering of others.</t>
-  </si>
-  <si>
     <t>Chaotic=Mooch: Property, schmoperty. If I need it, I take and use it. If I don't, I leave it for someone else.</t>
   </si>
   <si>
@@ -589,12 +502,6 @@
     <t>Any=Strong: Only the strong survive. I respect those who are strong and powerful.</t>
   </si>
   <si>
-    <t>Neutral=Nature: The natural world is more important than the edifices of the city and civilization.</t>
-  </si>
-  <si>
-    <t>Neutral=Nature: We weren't born tame or domesticated, so we shouldn't have to live that way.</t>
-  </si>
-  <si>
     <t>Chaotic=Bravery: If you want to succeed, you have to take risks.</t>
   </si>
   <si>
@@ -613,9 +520,6 @@
     <t>Any=Curious: I want to learn as much as I can about the people and places I encounter.</t>
   </si>
   <si>
-    <t>Chaotic=Innovation: Abandon old traditions and find better ways to do things.</t>
-  </si>
-  <si>
     <t>Any=Strength: All that matters to me is my own perfection. Let everyone else seek that perfection in their own way.</t>
   </si>
   <si>
@@ -625,9 +529,6 @@
     <t>Lawful=Power: I strive to become leader of the pack at all costs.</t>
   </si>
   <si>
-    <t>Any=Discovery: Every experiment has the potential to reveal more secrets of the multiverse.</t>
-  </si>
-  <si>
     <t>Chaotic=Independence: I must prove that I can handle myself without coddling from my family.</t>
   </si>
   <si>
@@ -637,9 +538,6 @@
     <t>Chaotic=Independence. I must prove that I can handle myself without the coddling of my family.</t>
   </si>
   <si>
-    <t>Evil=Power: One day, I will be the one giving orders.</t>
-  </si>
-  <si>
     <t>Lawful=Honor: If I dishonor myself, I dishonor my whole clan.</t>
   </si>
   <si>
@@ -655,9 +553,6 @@
     <t>Evil=Greed: Everyone I see is getting theirs, so I'm surely going to get mine.</t>
   </si>
   <si>
-    <t>Chaotic=Creativity: I strive to find more ways to express my art through pain-my own as well as others'.</t>
-  </si>
-  <si>
     <t>Chaotic=Uncertainty. The more chaos that swirls around me, the more opportunities I can find to profit.</t>
   </si>
   <si>
@@ -670,18 +565,12 @@
     <t>Any=Optimist: Everyone is basically good. Though the government is misguided, it will all be okay.</t>
   </si>
   <si>
-    <t>Lawful=Order: Like a well-pruned tree, society thrives when everything is kept in good order.</t>
-  </si>
-  <si>
     <t>Any=Exciting: I have found the truth of the Shadovar and want to share it with everyone.</t>
   </si>
   <si>
     <t>Chaotic=Invention: Make what you need out of whatever is at hand.</t>
   </si>
   <si>
-    <t>Neutral=Knowledge: Understanding the world is more important than what you do with your knowledge.</t>
-  </si>
-  <si>
     <t>Evil=All for a Coin I'll do nearly anything if it means I turn a profit.</t>
   </si>
   <si>
@@ -700,15 +589,9 @@
     <t>Neutral=People: I strive to inspire my spectators.</t>
   </si>
   <si>
-    <t>Lawful=Compliance: Coercion is a fine way of ensuring that the laws are obeyed.</t>
-  </si>
-  <si>
     <t>Good=Selfless: I use my position to help the downtrodden avoid persecution from the authorities</t>
   </si>
   <si>
-    <t>Lawful=Solidarity: It is most crucial to act with a single will, marching side by side in perfect accord.</t>
-  </si>
-  <si>
     <t>Lawful=Fittest: On the open road, the law of nature wins. Victims are the unprepared.</t>
   </si>
   <si>
@@ -730,9 +613,6 @@
     <t>Any=Wanderlust: I want to see as much of the world beyond the camps as I can.</t>
   </si>
   <si>
-    <t>Chaotic=Secretive: I am withdrawn, and hide my monstrous appearance for fear of drawing unwanted attention.</t>
-  </si>
-  <si>
     <t>Lawful=Boundaries: Everything and everyone has its prescribed place; I respect that and expect others to do the same.</t>
   </si>
   <si>
@@ -757,12 +637,6 @@
     <t>Any=Witty: Brains are better than brawn. I rely on my wits and respect others who do the same.</t>
   </si>
   <si>
-    <t>Lawful=Interdependence: We are all part of nature's web.</t>
-  </si>
-  <si>
-    <t>Evil=Might: The strongest are meant to dominate the weak.</t>
-  </si>
-  <si>
     <t>Any=Survival: You can't win if you're dead. Live to fight another day—when the odds might be more in your favor.</t>
   </si>
   <si>
@@ -781,9 +655,6 @@
     <t>Any=Prepared: I think success depends on preparing as much as possible in advance.</t>
   </si>
   <si>
-    <t>Evil=Power: I want to ensure the prosperity of my house and wield its power myself.</t>
-  </si>
-  <si>
     <t>Evil=Ambition: I’m going to prove that I deserve only the best — of everything.</t>
   </si>
   <si>
@@ -793,9 +664,6 @@
     <t>Chaotic=Freedom: I bow to no one I don’t respect.</t>
   </si>
   <si>
-    <t>Lawful=Science: A rigorous application of logical principles and protocols will lead us toward progress more surely than any belief system.</t>
-  </si>
-  <si>
     <t>Evil=Power: If I can attain more power, no one will tell me what to do.</t>
   </si>
   <si>
@@ -805,9 +673,6 @@
     <t>Evil=Power. If I can attain more power, no one will tell me what to do.</t>
   </si>
   <si>
-    <t>Evil=Prestige: I want to be admired, respected, feared, or even hated for my position and wealth.</t>
-  </si>
-  <si>
     <t>Evil=Might: The strongest are meant to rule.</t>
   </si>
   <si>
@@ -823,9 +688,6 @@
     <t>Chaotic=Chaos: You're out of order! And you're out of order! This whole realm is out of order!</t>
   </si>
   <si>
-    <t>Chaotic=Freedom: No one tells me what to do.</t>
-  </si>
-  <si>
     <t>Lawful=Justice. I can’t stand people being treated unjustly. I do whatever it takes to stop injustice and those who flout the law.</t>
   </si>
   <si>
@@ -838,18 +700,12 @@
     <t>Any=Secretive: I am in the habit of not talking about myself. My business is none of yours.</t>
   </si>
   <si>
-    <t>Good=Life: Preserving life and nature is always a worthwhile endeavor.</t>
-  </si>
-  <si>
     <t>Any=Frugal: I horde my possessions knowing that someday I will be called upon to give everything I have to the cause.</t>
   </si>
   <si>
     <t>Evil=Perfection: To measure a being and find it lacking is the greatest disappointment.</t>
   </si>
   <si>
-    <t>Good=Greater Good: I want to reshape the world into higher forms of life so that all can enjoy evolution.</t>
-  </si>
-  <si>
     <t>Good=Peace and Prosperity I smuggle only to achieve a greater goal that benefits my community.</t>
   </si>
   <si>
@@ -868,15 +724,9 @@
     <t>Lawful=Tradition: Every game has rules, and the playing field must be level.</t>
   </si>
   <si>
-    <t>Lawful=Legislation: The law embodies excellence in its precision and detail.</t>
-  </si>
-  <si>
     <t>Lawful=Patriotic: I am a loyal supporter of Phlan and its leaders, and see my role as a solemn duty and necessary evil to prevent anarchy</t>
   </si>
   <si>
-    <t>Lawful=Order: Society functions only if people do their duty and respect the chain of command.</t>
-  </si>
-  <si>
     <t>Neutral=Focused: I simply have a job to do, and I'm going to do it.</t>
   </si>
   <si>
@@ -898,9 +748,6 @@
     <t>Good=Generous: I give everything I can to help those in need, regardless of who they are.</t>
   </si>
   <si>
-    <t>Lawful=Justice: I have been wronged, and will not allow the same fate to befall others.</t>
-  </si>
-  <si>
     <t>Neutral=Let it Be: I don't meddle in the affairs of others if I can avoid it. They're none of my business.</t>
   </si>
   <si>
@@ -925,12 +772,6 @@
     <t>Good=Honest: Others can do what they want, but I won't lie or steal, even to feed my family.</t>
   </si>
   <si>
-    <t>Evil=Ambition: The time of Golgari ascendance is at hand, and I intend to have a prominent place in the new world order.</t>
-  </si>
-  <si>
-    <t>Chaotic=Rage: AAAAAARRRRggggh! [To live is to feel and express the rage burning in your belly.]</t>
-  </si>
-  <si>
     <t>Good=Reliability: When I was in need, I was able to rely on others. Now I want to be the one others rely on.</t>
   </si>
   <si>
@@ -949,9 +790,6 @@
     <t>Good=Respectful: I think everyone deserves to be treated with respect and dignity, regardless of their race, creed, color, or origin.</t>
   </si>
   <si>
-    <t>Any=Discovery: I want to learn all I can, both for my house and for my own curiosity.</t>
-  </si>
-  <si>
     <t>Any=Zeal: Anything worth doing is worth throwing my whole self into.</t>
   </si>
   <si>
@@ -961,9 +799,6 @@
     <t>Any=Resourcefulness: Our wits are our most valuable resource in troubled times.</t>
   </si>
   <si>
-    <t>Chaotic=Fun: I love my job! Despite the dangerous working conditions, there's nothing I'd rather do.</t>
-  </si>
-  <si>
     <t>Any=Family: Blood runs thicker than water.</t>
   </si>
   <si>
@@ -973,9 +808,6 @@
     <t>Any=Family. Blood runs thicker than water.</t>
   </si>
   <si>
-    <t>Lawful=Stability: The economy functions best when chaos is kept under control and everyone knows their place.</t>
-  </si>
-  <si>
     <t>Neutral=Nature: The natural world is more important than all the constructs of civilization.</t>
   </si>
   <si>
@@ -988,9 +820,6 @@
     <t>Neutral=Humility: I'm just a small part of a larger whole. So is everyone else.</t>
   </si>
   <si>
-    <t>Chaotic=Equality: I want to see Ravnica remade, with no guilds and no hierarchies.</t>
-  </si>
-  <si>
     <t>Any=Pleasure. What’s the use of working hard and making money if you can’t enjoy the finer things in life?</t>
   </si>
   <si>
@@ -1003,18 +832,12 @@
     <t>Good=Heroic: I do everything I can to help non-humans, regardless of the personal cost to me.</t>
   </si>
   <si>
-    <t>Good=Humility: Ambition and pride are the roots of strife.</t>
-  </si>
-  <si>
     <t>Any=Eloquent: I use my words to sway others to my beliefs.</t>
   </si>
   <si>
     <t>Any=Reflection: Muddled water always clears in time.</t>
   </si>
   <si>
-    <t>Lawful=Logic: It's foolish to let emotions and principles interfere with the conclusions of logic.</t>
-  </si>
-  <si>
     <t>Any=People For all my many lies, I place a high value on friendship.</t>
   </si>
   <si>
@@ -1033,15 +856,9 @@
     <t>Any=Growth: Lessons hide in victory and defeat.</t>
   </si>
   <si>
-    <t>Evil=Punishment: A public display of consequences is an excellent deterrent for other criminals.</t>
-  </si>
-  <si>
     <t>Evil=Manipulative: I use my knowledge to blackmail and manipulate others to my own benefit</t>
   </si>
   <si>
-    <t>Lawful=Conviction: Anything worth doing is worth doing with your whole heart.</t>
-  </si>
-  <si>
     <t>Any=Motivated: There's a reason I'm good at what I do, I pay attention to the details.</t>
   </si>
   <si>
@@ -1063,9 +880,6 @@
     <t>Evil=To the Abyss with Them: The people of Hillsfar cast me out. I won't risk my hide to help them.</t>
   </si>
   <si>
-    <t>Evil=Sycophant: During my ordeal, I became a willing servant of the Maimed Virulence, and spy on his behalf.</t>
-  </si>
-  <si>
     <t>Any=Materialist: I want riches to improve my life.</t>
   </si>
   <si>
@@ -1090,12 +904,6 @@
     <t>Evil=Ungrateful: Those who give only do it to make themselves feel better. I steal from them.</t>
   </si>
   <si>
-    <t>Neutral=Live and Let Live: Meddling in the affairs of other guilds is a great way to get squashed like a bug.</t>
-  </si>
-  <si>
-    <t>Any=Tradition: The Old Ways must be preserved and upheld.</t>
-  </si>
-  <si>
     <t>Evil=Victory: Winning is the real measure of a person. In the end, the only thing that matters is the scoreboard.</t>
   </si>
   <si>
@@ -1114,9 +922,6 @@
     <t>Evil=Corrupt: I will break the law or act dishonestly if the money is right.</t>
   </si>
   <si>
-    <t>Any=Comfort: I want to ensure that me and mine enjoy the best things in life.</t>
-  </si>
-  <si>
     <t>Any=Redemption: I will train all the harder to make up for the doubt I entertained when I was younger.</t>
   </si>
   <si>
@@ -1126,9 +931,6 @@
     <t>Any=Unity: Lone wolves fail where the pack succeeds.</t>
   </si>
   <si>
-    <t>Evil=Power: Someday I'll find or create the magic that will make me the most powerful being in Ravnica.</t>
-  </si>
-  <si>
     <t>Good=Noble Obligation: It is my duty to protect and care for the people beneath me.</t>
   </si>
   <si>
@@ -1138,9 +940,6 @@
     <t>Good=Noble Obligation. It is my duty to protect and care for the people beneath me.</t>
   </si>
   <si>
-    <t>Any=Eternity: I want to live forever - in the flesh as long as possible, and as a spirit afterward.</t>
-  </si>
-  <si>
     <t>Any=Glory: I must earn glory in battle, for myself and my clan.</t>
   </si>
   <si>
@@ -1156,9 +955,6 @@
     <t>Any=Responsibility: We all have our roles to play. I'll hold up my end of the bargain.</t>
   </si>
   <si>
-    <t>Any=Spectacle: People are inspired by the greatness they see in art.</t>
-  </si>
-  <si>
     <t>Evil=Power. Money is fine, but real power means never having to say you’re sorry.</t>
   </si>
   <si>
@@ -1171,16 +967,10 @@
     <t>Evil=Depraved: I have lost my moral compass. The ends justify most any means.</t>
   </si>
   <si>
-    <t>Any=Evangelism: When all have joined the Selesnya Conclave, Ravnica will finally know peace.</t>
-  </si>
-  <si>
     <t>Good=Compassionate: It is through love that others will join In our cause.</t>
   </si>
   <si>
     <t>Good=Hope: The horizon at sea holds the greatest promise.</t>
-  </si>
-  <si>
-    <t>Evil=Superiority: My vast intellect and strength are directed toward increasing my sway over others.</t>
   </si>
   <si>
     <t>Any=Daring I am most happy when risking everything.</t>
@@ -1603,1202 +1393,971 @@
       <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="X3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>179</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA5" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
